--- a/biology/Médecine/Nabumétone/Nabumétone.xlsx
+++ b/biology/Médecine/Nabumétone/Nabumétone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nabum%C3%A9tone</t>
+          <t>Nabumétone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La nabumétone est un médicament anti-inflammatoire non stéroïdien[1].
+La nabumétone est un médicament anti-inflammatoire non stéroïdien.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nabum%C3%A9tone</t>
+          <t>Nabumétone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Est utilisé pour traiter l'inflammation dans des conditions telles que l'arthrose et la polyarthrite rhumatoïde[1]. L'utilisation est recommandée pour une durée aussi courte que possible[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est utilisé pour traiter l'inflammation dans des conditions telles que l'arthrose et la polyarthrite rhumatoïde. L'utilisation est recommandée pour une durée aussi courte que possible.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nabum%C3%A9tone</t>
+          <t>Nabumétone</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires courants comprennent les douleurs abdominales, la constipation, les étourdissements, l'enflure, les maux de tête, les éruptions cutanées et les bourdonnements d'oreille[1] ; d'autres effets secondaires peuvent inclure des problèmes rénaux, des crises cardiaques, des saignements gastro-intestinaux, une hypertension artérielle, une anaphylaxie et une insuffisance cardiaque[1]. L'utilisation pendant la dernière partie de la grossesse peut nuire au fœtus[3]. Il fonctionne en bloquant COX-1 et COX-2[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires courants comprennent les douleurs abdominales, la constipation, les étourdissements, l'enflure, les maux de tête, les éruptions cutanées et les bourdonnements d'oreille ; d'autres effets secondaires peuvent inclure des problèmes rénaux, des crises cardiaques, des saignements gastro-intestinaux, une hypertension artérielle, une anaphylaxie et une insuffisance cardiaque. L'utilisation pendant la dernière partie de la grossesse peut nuire au fœtus. Il fonctionne en bloquant COX-1 et COX-2.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nabum%C3%A9tone</t>
+          <t>Nabumétone</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nabumétone a été approuvée pour un usage médical aux États-Unis en 1991[1]. Au Royaume-Uni, 4 semaines de traitement coûtent environ 7 livre sterling au NHS[3]. Ce montant aux États-Unis coûte environ 26 dollars américains[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nabumétone a été approuvée pour un usage médical aux États-Unis en 1991. Au Royaume-Uni, 4 semaines de traitement coûtent environ 7 livre sterling au NHS. Ce montant aux États-Unis coûte environ 26 dollars américains.
 </t>
         </is>
       </c>
